--- a/data/trans_camb/P25A_4_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_4_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,17 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -781,6 +872,21 @@
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -823,6 +929,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -861,6 +982,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,43</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>72,12%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>77,36%</t>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 6,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,76</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>109,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1211,6 +1467,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,47</t>
+          <t>-5,55; 2,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 11,25</t>
+          <t>-3,4; 8,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,99</t>
+          <t>-7,11; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,21</t>
+          <t>0,0; 11,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 6,58</t>
+          <t>0,0; 8,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 5,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 4,73</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 5,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>271,51%</t>
+          <t>-18,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>408,19%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>121,18%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,77%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>171,84%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>126,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>140,89%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>168,48%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 1615,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,91; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 13,14</t>
+          <t>0,0; 15,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 7,82</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 10,35</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 12,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 8,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 7,44</t>
+          <t>0,0; 8,36</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,98</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 7,84</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>113,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1495,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 1299,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-96,8; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1003,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1515,12 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 346,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,83; 332,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,25</t>
+          <t>-0,31; 2,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,7</t>
+          <t>-0,3; 2,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,36</t>
+          <t>-0,59; 1,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,56</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,82</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,67</t>
+          <t>0,0; 1,75</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 1,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 1,37</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 1,25</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>258,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>245,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>56,35%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>426,43%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>425,21%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>288,93%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 445,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 313,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 432,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-74,1; 419,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 244,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 217,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
